--- a/Ejemplos Reportes/Consolidado_CXP_Pendientes_MMAAAA.xlsx
+++ b/Ejemplos Reportes/Consolidado_CXP_Pendientes_MMAAAA.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mabel\Documents\2NV\DIANA\CXP\Entregables\Reportes de ejecución\Ejemplos reportes de resultado\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E122FAC6-4B74-4D95-A2CC-C0CAA9E013B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{195FA4DD-1452-4A36-AC26-73DB4C4FC99E}"/>
+    <workbookView windowHeight="17640"/>
   </bookViews>
   <sheets>
     <sheet name="Pendiente Eventos Vigentes" sheetId="1" r:id="rId1"/>
@@ -19,28 +13,35 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Mabel Díaz</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{86B0390B-42C4-4D7D-AB28-0C40603DE976}">
+    <comment ref="A2" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">Mabel Díaz:
 </t>
@@ -48,416 +49,381 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t>Corresponde a la fecha de ejecución del Bot</t>
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{9E9589D4-62AE-4368-9F52-434B734B521C}">
+    <comment ref="B2" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t>Mabel Díaz:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 Correponde al ID de la ejecución del Bot</t>
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{33DBEFA9-EDE9-4B85-856B-D0782F76AD63}">
+    <comment ref="C2" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t>Mabel Díaz:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 Corresponde al ID del registro o factura que se está documentando</t>
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{263D1907-33BA-46C2-BA3B-9AF1C23935E6}">
+    <comment ref="D2" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t>Mabel Díaz:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 Corresponde al dato del campo "Tipo de documento" almacenado en BD</t>
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{948B47F7-0406-48E8-AE3B-5378095BF4FD}">
+    <comment ref="E2" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t>Mabel Díaz:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 Corresponde al  dato del campo "Número de liquidación u orden de compra"</t>
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{152506E8-4449-412B-B013-6203DA0A6CB4}">
+    <comment ref="F2" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t>Mabel Díaz:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 Corresponde al dato del campo NIT emisor o NIT del proveedor </t>
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{BC4047DB-6673-4AFE-855D-9889D258792F}">
+    <comment ref="G2" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t>Mabel Díaz:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 Corresponde al dato del campo Nombre Emisor </t>
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{F75B8C71-148E-41F9-9AAB-B17ECFF42CE3}">
+    <comment ref="H2" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t>Mabel Díaz:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 Corresponde al dato del campo Numero factura de venta</t>
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{B3292665-6ED9-4B15-8C86-8AE7EC361A7F}">
+    <comment ref="I2" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t>Mabel Díaz:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 dato del campo Resultado Final registro antes de Eventos y se repite por las líneas del campo Item</t>
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{E452DBAC-A864-492A-9B6B-1DFB702BC1BE}">
+    <comment ref="J2" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t>Mabel Díaz:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 Corresponde al dato alimientado en la tabla comparativa como se indica en HU05</t>
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{2EE2A772-51C0-4F8A-8ADE-66414CB6362E}">
+    <comment ref="K2" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t>Mabel Díaz:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 Corresponde al dato alimientado en la tabla comparativa como se indica en HU05</t>
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{D782D153-7E91-4921-9AE5-0E2AA1034819}">
+    <comment ref="L2" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t>Mabel Díaz:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 Corresponde al dato alimientado en la tabla comparativa como se indica en HU05</t>
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{CAE48962-5AF6-4ED3-A041-DB6EA52994FA}">
+    <comment ref="M2" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t>Mabel Díaz:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 Corresponde al dato alimientado en la tabla comparativa como se indica en HU05</t>
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{0C4B6129-20E0-40FC-B2FA-8E37E27A81D4}">
+    <comment ref="N2" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t>Mabel Díaz:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 Corresponde al dato alimientado en la tabla comparativa como se indica en HU05</t>
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{4B62AEBB-D67E-4099-BB28-0C8183F13F25}">
+    <comment ref="O2" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t>Mabel Díaz:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 Corresponde al dato alimientado en la tabla comparativa como se indica en HU05</t>
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{AE9E566A-4C49-4DD5-A257-337E696C0140}">
+    <comment ref="P2" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t>Mabel Díaz:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 Corresponde al dato alimientado en la tabla comparativa como se indica en HU05</t>
         </r>
       </text>
     </comment>
-    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{B1254B16-4D75-4B5E-9334-90347CD57555}">
+    <comment ref="Q2" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t>Mabel Díaz:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 Corresponde al dato alimientado en la tabla comparativa como se indica en HU05</t>
         </r>
       </text>
     </comment>
-    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{6168E923-4669-49E9-BA03-FA034E82DB76}">
+    <comment ref="R2" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t>Mabel Díaz:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 corresponde a todas las observaciones levantadas para el registro</t>
@@ -469,20 +435,19 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Mabel Díaz</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{49A931C2-0110-4FF9-9226-E591DFAC96EA}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">Mabel Díaz:
 </t>
@@ -490,224 +455,205 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t>Corresponde a la fecha de ejecución del Bot</t>
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{EABFCCBA-07F0-4441-9FF3-CCFD18CF9906}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t>Mabel Díaz:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 Correponde al ID de la ejecución del Bot</t>
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{8F269890-C852-41C2-B55D-F15AD963F560}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t>Mabel Díaz:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 Corresponde al ID del registro o factura que se está documentando</t>
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{9631DDBF-675D-4D3D-87B4-D9A0C6ADBC1B}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t>Mabel Díaz:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 Corresponde al dato del campo "Tipo de documento" almacenado en BD</t>
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{4992F853-24C3-4294-9D90-21A7D6CFFE3E}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t>Mabel Díaz:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 Corresponde al  dato del campo "Número de liquidación u orden de compra"</t>
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{4E254717-5B4A-417E-95FA-4070D18A0F59}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t>Mabel Díaz:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 Corresponde al dato del campo NIT emisor o NIT del proveedor </t>
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{0FB198A1-A904-4E57-A992-04CB9BCD0000}">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t>Mabel Díaz:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 Corresponde al dato del campo Nombre Emisor </t>
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{35B04545-07EB-4BDF-8BFB-DEBA7AAB2C0F}">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t>Mabel Díaz:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 Corresponde al dato del campo Numero factura de venta</t>
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{C899E8C2-B47B-4916-A4CE-3A95AA2B05C4}">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t>Mabel Díaz:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 dato del campo Resultado Final registro antes de Eventos y se repite por las líneas del campo Item</t>
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{1DADD90B-1D6D-4F37-9700-8C43B24332EC}">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t>Mabel Díaz:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 corresponde a todas las observaciones levantadas para el registro</t>
@@ -719,20 +665,19 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Mabel Díaz</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{40CF2934-0ABA-4EE3-8EC7-0F04F830AEDC}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">Mabel Díaz:
 </t>
@@ -740,200 +685,183 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t>Corresponde a la fecha de ejecución del Bot</t>
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{2101B4B0-372D-4922-8565-2FE3815D2AB3}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t>Mabel Díaz:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 Correponde al ID de la ejecución del Bot</t>
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{A521AB4A-BFC3-445D-9BE6-60351CD8B891}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t>Mabel Díaz:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 Corresponde al ID del registro o factura que se está documentando</t>
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{76A4C5F2-B94D-471A-A3B8-296B8739D8C6}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t>Mabel Díaz:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 Corresponde al dato del campo "Tipo de documento" almacenado en BD</t>
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{66C7B413-DF99-4B68-A94A-4EFD744A55FC}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t>Mabel Díaz:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 Corresponde al  dato del campo "Número de liquidación u orden de compra"</t>
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{D1D3F5F0-5DD9-4333-9C2A-A462443BBDD4}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t>Mabel Díaz:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 Corresponde al dato del campo NIT emisor o NIT del proveedor </t>
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{42AE54E1-D8AA-493C-9601-657C4B66E629}">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t>Mabel Díaz:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 Corresponde al dato del campo Nombre Emisor </t>
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{78ADBF07-9840-4BB5-B354-295723CE03C8}">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t>Mabel Díaz:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 Corresponde al dato del campo Numero factura de venta</t>
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{5A3AF3EC-41AD-43D2-B3A5-C2AA2D331314}">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t>Mabel Díaz:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 corresponde a todas las observaciones levantadas para el registro</t>
@@ -945,177 +873,198 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="58">
+  <si>
+    <t>Fecha de ejecución</t>
+  </si>
+  <si>
+    <t>ID ejecución</t>
+  </si>
+  <si>
+    <t>ID Registro</t>
+  </si>
+  <si>
+    <t>Tipo de documento</t>
+  </si>
+  <si>
+    <t>Orden de Compra</t>
+  </si>
+  <si>
+    <t>NIT</t>
+  </si>
+  <si>
+    <t>Nombre Proveedor</t>
+  </si>
+  <si>
+    <t>Factura</t>
+  </si>
+  <si>
+    <t>Estado validación antes de eventos</t>
+  </si>
+  <si>
+    <t>Fecha - hora Evento Acuse de Recibo</t>
+  </si>
+  <si>
+    <t>Estado Evento Acuse de Recibo</t>
+  </si>
+  <si>
+    <t>Fecha - hora Evento Recibo del bien y/o prestación del servicio</t>
+  </si>
+  <si>
+    <t>Estado Evento Recibo del bien y/o prestación del servicio</t>
+  </si>
+  <si>
+    <t>Fecha - hora Evento Aceptación Expresa</t>
+  </si>
+  <si>
+    <t>Estado Evento Aceptación Expresa</t>
+  </si>
+  <si>
+    <t>Fecha - hora Evento Reclamo de la Factura Electrónica de Venta</t>
+  </si>
+  <si>
+    <t>Estado Evento Reclamo</t>
+  </si>
+  <si>
+    <t>Observaciones</t>
+  </si>
+  <si>
+    <t>FV</t>
+  </si>
+  <si>
+    <t>DQUE3735</t>
+  </si>
+  <si>
+    <t>APROBADO</t>
+  </si>
+  <si>
+    <t>11/11/2025 - 11:11</t>
+  </si>
+  <si>
+    <t>EXITOSO</t>
+  </si>
+  <si>
+    <t>11/11/2025 - 11:15</t>
+  </si>
+  <si>
+    <t>11/11/2025 - 11:20</t>
+  </si>
+  <si>
+    <t>PENDIENTE</t>
+  </si>
+  <si>
+    <t>Se rechaza factura por inconsistencia y/o ausencia de dato en Fecha de emisión documento</t>
+  </si>
+  <si>
+    <t>DQUE3736</t>
+  </si>
+  <si>
+    <t>Fecha 030</t>
+  </si>
+  <si>
+    <t>Estado 030</t>
+  </si>
+  <si>
+    <t>032</t>
+  </si>
+  <si>
+    <t>033</t>
+  </si>
+  <si>
+    <t>031</t>
+  </si>
+  <si>
+    <t>DQUE3737</t>
+  </si>
+  <si>
+    <t>DQUE3738</t>
+  </si>
+  <si>
+    <t>DQUE3739</t>
+  </si>
+  <si>
+    <t>APROBADO SIN CONTABILIZACIÓN</t>
+  </si>
+  <si>
+    <t>DQUE3740</t>
+  </si>
+  <si>
+    <t>DQUE3741</t>
+  </si>
+  <si>
+    <t>DQUE3742</t>
+  </si>
+  <si>
+    <t>APROBADO RETORNADO</t>
+  </si>
+  <si>
+    <t>DQUE3743</t>
+  </si>
+  <si>
+    <t>DQUE3744</t>
+  </si>
+  <si>
+    <t>DQUE3745</t>
+  </si>
+  <si>
+    <t>DQUE3746</t>
+  </si>
+  <si>
+    <t>RECHAZADO</t>
+  </si>
+  <si>
+    <t>DQUE3747</t>
+  </si>
+  <si>
+    <t>DQUE3748</t>
+  </si>
+  <si>
+    <t>DQUE3749</t>
+  </si>
+  <si>
+    <t>DQUE3750</t>
+  </si>
+  <si>
+    <t>DQUE3751</t>
+  </si>
+  <si>
+    <t>RECHAZADO RETORNADO</t>
+  </si>
+  <si>
+    <t>DQUE3752</t>
+  </si>
+  <si>
+    <t>DQUE3753</t>
+  </si>
   <si>
     <t>DQUE3754</t>
   </si>
   <si>
-    <t>DQUE3753</t>
-  </si>
-  <si>
-    <t>DQUE3752</t>
-  </si>
-  <si>
-    <t>DQUE3751</t>
-  </si>
-  <si>
-    <t>DQUE3750</t>
-  </si>
-  <si>
-    <t>DQUE3749</t>
-  </si>
-  <si>
-    <t>DQUE3748</t>
-  </si>
-  <si>
-    <t>DQUE3747</t>
-  </si>
-  <si>
-    <t>DQUE3746</t>
-  </si>
-  <si>
-    <t>DQUE3745</t>
-  </si>
-  <si>
-    <t>DQUE3744</t>
-  </si>
-  <si>
-    <t>DQUE3743</t>
-  </si>
-  <si>
-    <t>DQUE3742</t>
-  </si>
-  <si>
-    <t>DQUE3741</t>
-  </si>
-  <si>
-    <t>DQUE3740</t>
-  </si>
-  <si>
-    <t>DQUE3739</t>
-  </si>
-  <si>
-    <t>DQUE3738</t>
-  </si>
-  <si>
-    <t>DQUE3737</t>
-  </si>
-  <si>
-    <t>DQUE3736</t>
-  </si>
-  <si>
-    <t>DQUE3735</t>
-  </si>
-  <si>
-    <t>Observaciones</t>
-  </si>
-  <si>
-    <t>Factura</t>
-  </si>
-  <si>
-    <t>Se rechaza factura por inconsistencia y/o ausencia de dato en Fecha de emisión documento</t>
-  </si>
-  <si>
     <t>Registro excede el plazo máximo de retoma.</t>
   </si>
   <si>
-    <t>ID ejecución</t>
-  </si>
-  <si>
-    <t>Tipo de documento</t>
-  </si>
-  <si>
-    <t>Orden de Compra</t>
-  </si>
-  <si>
-    <t>Nombre Proveedor</t>
-  </si>
-  <si>
-    <t>Estado validación antes de eventos</t>
-  </si>
-  <si>
-    <t>Fecha - hora Evento Acuse de Recibo</t>
-  </si>
-  <si>
-    <t>11/11/2025 - 11:11</t>
-  </si>
-  <si>
-    <t>Estado Evento Acuse de Recibo</t>
-  </si>
-  <si>
-    <t>EXITOSO</t>
-  </si>
-  <si>
-    <t>Fecha - hora Evento Recibo del bien y/o prestación del servicio</t>
-  </si>
-  <si>
-    <t>11/11/2025 - 11:15</t>
-  </si>
-  <si>
-    <t>Estado Evento Recibo del bien y/o prestación del servicio</t>
-  </si>
-  <si>
-    <t>Fecha - hora Evento Aceptación Expresa</t>
-  </si>
-  <si>
-    <t>11/11/2025 - 11:20</t>
-  </si>
-  <si>
-    <t>Estado Evento Aceptación Expresa</t>
-  </si>
-  <si>
-    <t>Fecha - hora Evento Reclamo de la Factura Electrónica de Venta</t>
-  </si>
-  <si>
-    <t>Estado Evento Reclamo</t>
-  </si>
-  <si>
-    <t>APROBADO</t>
-  </si>
-  <si>
-    <t>RECHAZADO</t>
-  </si>
-  <si>
-    <t>APROBADO RETORNADO</t>
-  </si>
-  <si>
-    <t>RECHAZADO RETORNADO</t>
-  </si>
-  <si>
-    <t>APROBADO SIN CONTABILIZACIÓN</t>
-  </si>
-  <si>
-    <t>FV</t>
-  </si>
-  <si>
     <t>APROBADO CONTADO</t>
   </si>
   <si>
     <t>APROBADO CONTADO Y/O EVENTO MANUAL</t>
-  </si>
-  <si>
-    <t>Fecha de ejecución</t>
-  </si>
-  <si>
-    <t>ID Registro</t>
-  </si>
-  <si>
-    <t>NIT</t>
-  </si>
-  <si>
-    <t>PENDIENTE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* \-??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1123,32 +1072,367 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
-      <color indexed="81"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
-      <color indexed="81"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1165,51 +1449,338 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Coma" xfId="1" builtinId="3"/>
+    <cellStyle name="Moneda" xfId="2" builtinId="4"/>
+    <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
+    <cellStyle name="Coma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Moneda [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hipervínculo" xfId="6" builtinId="8"/>
+    <cellStyle name="Hipervínculo visitado" xfId="7" builtinId="9"/>
+    <cellStyle name="Nota" xfId="8" builtinId="10"/>
+    <cellStyle name="Texto de advertencia" xfId="9" builtinId="11"/>
+    <cellStyle name="Título" xfId="10" builtinId="15"/>
+    <cellStyle name="Texto explicativo" xfId="11" builtinId="53"/>
+    <cellStyle name="Título 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Título 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Título 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Título 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Entrada" xfId="16" builtinId="20"/>
+    <cellStyle name="Salida" xfId="17" builtinId="21"/>
+    <cellStyle name="Cálculo" xfId="18" builtinId="22"/>
+    <cellStyle name="Celda de comprobación" xfId="19" builtinId="23"/>
+    <cellStyle name="Celda vinculada" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Correcto" xfId="22" builtinId="26"/>
+    <cellStyle name="Incorrecto" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutro" xfId="24" builtinId="28"/>
+    <cellStyle name="Énfasis1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Énfasis1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Énfasis1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Énfasis1" xfId="28" builtinId="32"/>
+    <cellStyle name="Énfasis2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Énfasis2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Énfasis2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Énfasis2" xfId="32" builtinId="36"/>
+    <cellStyle name="Énfasis3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Énfasis3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Énfasis3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Énfasis3" xfId="36" builtinId="40"/>
+    <cellStyle name="Énfasis4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Énfasis4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Énfasis4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Énfasis4" xfId="40" builtinId="44"/>
+    <cellStyle name="Énfasis5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Énfasis5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Énfasis5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Énfasis5" xfId="44" builtinId="48"/>
+    <cellStyle name="Énfasis6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Énfasis6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Énfasis6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Énfasis6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1496,88 +2067,88 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B1E604-9718-4A8B-8DF4-73009B596E50}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:S33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4"/>
   <cols>
-    <col min="9" max="10" width="26.85546875" customWidth="1"/>
-    <col min="11" max="11" width="22.7109375" customWidth="1"/>
-    <col min="12" max="12" width="26.85546875" customWidth="1"/>
-    <col min="13" max="13" width="25.28515625" customWidth="1"/>
-    <col min="14" max="14" width="24.85546875" customWidth="1"/>
-    <col min="15" max="15" width="25.7109375" customWidth="1"/>
-    <col min="16" max="17" width="26.85546875" customWidth="1"/>
-    <col min="18" max="18" width="85.85546875" style="3" customWidth="1"/>
+    <col min="9" max="10" width="26.8518518518519" customWidth="1"/>
+    <col min="11" max="11" width="22.712962962963" customWidth="1"/>
+    <col min="12" max="12" width="26.8518518518519" customWidth="1"/>
+    <col min="13" max="13" width="25.287037037037" customWidth="1"/>
+    <col min="14" max="14" width="24.8518518518519" customWidth="1"/>
+    <col min="15" max="15" width="25.712962962963" customWidth="1"/>
+    <col min="16" max="17" width="26.8518518518519" customWidth="1"/>
+    <col min="18" max="18" width="85.8518518518518" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:18">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" ht="25.5" customHeight="1" spans="1:18">
+      <c r="A3" s="2">
         <v>45903</v>
       </c>
       <c r="B3">
@@ -1587,7 +2158,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="E3" s="3">
         <v>50</v>
@@ -1599,32 +2170,32 @@
         <v>19</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>32</v>
+        <v>21</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+        <v>24</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="2">
         <v>45904</v>
       </c>
       <c r="B4">
@@ -1634,7 +2205,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="E4" s="3">
         <v>50</v>
@@ -1643,17 +2214,41 @@
         <v>809000555</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="2">
         <v>45905</v>
       </c>
       <c r="B5">
@@ -1663,7 +2258,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="E5" s="3">
         <v>50</v>
@@ -1672,17 +2267,17 @@
         <v>809000555</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+        <v>20</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="2">
         <v>45906</v>
       </c>
       <c r="B6">
@@ -1692,7 +2287,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="E6" s="3">
         <v>45</v>
@@ -1701,17 +2296,17 @@
         <v>809000555</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+        <v>20</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" ht="28.8" spans="1:18">
+      <c r="A7" s="2">
         <v>45907</v>
       </c>
       <c r="B7">
@@ -1721,7 +2316,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="E7" s="3">
         <v>45</v>
@@ -1730,17 +2325,17 @@
         <v>809000555</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+        <v>36</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" ht="28.8" spans="1:18">
+      <c r="A8" s="2">
         <v>45908</v>
       </c>
       <c r="B8">
@@ -1750,7 +2345,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="E8" s="3">
         <v>45</v>
@@ -1759,17 +2354,17 @@
         <v>809000555</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+        <v>36</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" ht="28.8" spans="1:18">
+      <c r="A9" s="2">
         <v>45909</v>
       </c>
       <c r="B9">
@@ -1779,7 +2374,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="E9" s="3">
         <v>41</v>
@@ -1788,17 +2383,17 @@
         <v>809000555</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+        <v>36</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="2">
         <v>45910</v>
       </c>
       <c r="B10">
@@ -1808,7 +2403,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="E10" s="3">
         <v>41</v>
@@ -1817,17 +2412,17 @@
         <v>809000555</v>
       </c>
       <c r="H10" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I10" t="s">
-        <v>43</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+        <v>40</v>
+      </c>
+      <c r="R10" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="2">
         <v>45911</v>
       </c>
       <c r="B11">
@@ -1837,7 +2432,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="E11" s="3">
         <v>41</v>
@@ -1846,17 +2441,17 @@
         <v>809000555</v>
       </c>
       <c r="H11" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="I11" t="s">
-        <v>43</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+        <v>40</v>
+      </c>
+      <c r="R11" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="2">
         <v>45912</v>
       </c>
       <c r="B12">
@@ -1866,7 +2461,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="E12" s="3">
         <v>42</v>
@@ -1875,17 +2470,17 @@
         <v>809000555</v>
       </c>
       <c r="H12" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="I12" t="s">
-        <v>43</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+        <v>40</v>
+      </c>
+      <c r="R12" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="2">
         <v>45913</v>
       </c>
       <c r="B13">
@@ -1895,7 +2490,7 @@
         <v>11</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="E13" s="3">
         <v>42</v>
@@ -1904,17 +2499,17 @@
         <v>809000555</v>
       </c>
       <c r="H13" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="I13" t="s">
-        <v>43</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+        <v>40</v>
+      </c>
+      <c r="R13" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="2">
         <v>45914</v>
       </c>
       <c r="B14">
@@ -1924,7 +2519,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="E14" s="3">
         <v>42</v>
@@ -1933,17 +2528,17 @@
         <v>809000555</v>
       </c>
       <c r="H14" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="I14" t="s">
-        <v>42</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+        <v>45</v>
+      </c>
+      <c r="R14" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="2">
         <v>45915</v>
       </c>
       <c r="B15">
@@ -1953,7 +2548,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="E15" s="3">
         <v>42</v>
@@ -1962,17 +2557,17 @@
         <v>809000555</v>
       </c>
       <c r="H15" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>42</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+        <v>45</v>
+      </c>
+      <c r="R15" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="2">
         <v>45916</v>
       </c>
       <c r="B16">
@@ -1982,7 +2577,7 @@
         <v>14</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="E16" s="3">
         <v>42</v>
@@ -1991,17 +2586,17 @@
         <v>809000555</v>
       </c>
       <c r="H16" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>42</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+        <v>45</v>
+      </c>
+      <c r="R16" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="2">
         <v>45917</v>
       </c>
       <c r="B17">
@@ -2011,7 +2606,7 @@
         <v>15</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="E17" s="3">
         <v>43</v>
@@ -2020,17 +2615,17 @@
         <v>809000555</v>
       </c>
       <c r="H17" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>42</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+        <v>45</v>
+      </c>
+      <c r="R17" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="2">
         <v>45918</v>
       </c>
       <c r="B18">
@@ -2040,7 +2635,7 @@
         <v>16</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="E18" s="3">
         <v>43</v>
@@ -2049,17 +2644,17 @@
         <v>809000555</v>
       </c>
       <c r="H18" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="I18" t="s">
-        <v>42</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+        <v>45</v>
+      </c>
+      <c r="R18" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="2">
         <v>45919</v>
       </c>
       <c r="B19">
@@ -2069,7 +2664,7 @@
         <v>17</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="E19" s="3">
         <v>43</v>
@@ -2078,17 +2673,17 @@
         <v>809000555</v>
       </c>
       <c r="H19" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="I19" t="s">
-        <v>44</v>
-      </c>
-      <c r="R19" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+        <v>51</v>
+      </c>
+      <c r="R19" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="2">
         <v>45920</v>
       </c>
       <c r="B20">
@@ -2098,7 +2693,7 @@
         <v>18</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="E20" s="3">
         <v>43</v>
@@ -2107,17 +2702,17 @@
         <v>809000555</v>
       </c>
       <c r="H20" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="I20" t="s">
-        <v>44</v>
-      </c>
-      <c r="R20" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+        <v>51</v>
+      </c>
+      <c r="R20" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" s="2">
         <v>45921</v>
       </c>
       <c r="B21">
@@ -2127,7 +2722,7 @@
         <v>19</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="E21" s="3">
         <v>43</v>
@@ -2136,17 +2731,17 @@
         <v>809000555</v>
       </c>
       <c r="H21" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="I21" t="s">
-        <v>44</v>
-      </c>
-      <c r="R21" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+        <v>51</v>
+      </c>
+      <c r="R21" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" s="2">
         <v>45922</v>
       </c>
       <c r="B22">
@@ -2156,7 +2751,7 @@
         <v>20</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="E22" s="3">
         <v>43</v>
@@ -2165,103 +2760,105 @@
         <v>809000555</v>
       </c>
       <c r="H22" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="I22" t="s">
-        <v>44</v>
-      </c>
-      <c r="R22" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="R22" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="18:19">
       <c r="R26"/>
       <c r="S26" s="4"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="R27" s="5"/>
-      <c r="S27" s="6"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="R28" s="6"/>
+    <row r="27" spans="18:19">
+      <c r="R27" s="8"/>
+      <c r="S27" s="5"/>
+    </row>
+    <row r="28" spans="18:19">
+      <c r="R28" s="5"/>
       <c r="S28" s="4"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="18:19">
       <c r="R29"/>
-      <c r="S29" s="6"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S29" s="5"/>
+    </row>
+    <row r="30" spans="18:19">
       <c r="R30"/>
       <c r="S30" s="4"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="18:19">
       <c r="R31"/>
-      <c r="S31" s="7"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S31" s="6"/>
+    </row>
+    <row r="32" spans="18:19">
       <c r="R32"/>
-      <c r="S32" s="8"/>
-    </row>
-    <row r="33" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="S32" s="9"/>
+    </row>
+    <row r="33" spans="18:19">
       <c r="R33"/>
-      <c r="S33" s="6"/>
+      <c r="S33" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADFC4260-2556-4C63-B52E-74B0E6BEF235}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="9" max="9" width="26.85546875" customWidth="1"/>
-    <col min="10" max="10" width="40.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.1388888888889" customWidth="1"/>
+    <col min="2" max="2" width="19.4259259259259" customWidth="1"/>
+    <col min="9" max="9" width="26.8518518518519" customWidth="1"/>
+    <col min="10" max="10" width="40.8518518518519" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="1" ht="28.8" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2">
         <v>45903</v>
       </c>
       <c r="B2">
@@ -2277,14 +2874,14 @@
         <v>19</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2">
         <v>45904</v>
       </c>
       <c r="B3">
@@ -2297,17 +2894,17 @@
         <v>809000555</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="2">
         <v>45905</v>
       </c>
       <c r="B4">
@@ -2320,17 +2917,17 @@
         <v>809000555</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="2">
         <v>45906</v>
       </c>
       <c r="B5">
@@ -2343,17 +2940,17 @@
         <v>809000555</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="J5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="2">
         <v>45907</v>
       </c>
       <c r="B6">
@@ -2366,17 +2963,17 @@
         <v>809000555</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="J6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="2">
         <v>45908</v>
       </c>
       <c r="B7">
@@ -2389,17 +2986,17 @@
         <v>809000555</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="J7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="2">
         <v>45909</v>
       </c>
       <c r="B8">
@@ -2412,17 +3009,17 @@
         <v>809000555</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="J8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="2">
         <v>45910</v>
       </c>
       <c r="B9">
@@ -2435,17 +3032,17 @@
         <v>809000555</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="2">
         <v>45911</v>
       </c>
       <c r="B10">
@@ -2458,17 +3055,17 @@
         <v>809000555</v>
       </c>
       <c r="H10" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="I10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="2">
         <v>45912</v>
       </c>
       <c r="B11">
@@ -2481,17 +3078,17 @@
         <v>809000555</v>
       </c>
       <c r="H11" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="I11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="2">
         <v>45913</v>
       </c>
       <c r="B12">
@@ -2504,17 +3101,17 @@
         <v>809000555</v>
       </c>
       <c r="H12" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="I12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="2">
         <v>45914</v>
       </c>
       <c r="B13">
@@ -2527,17 +3124,17 @@
         <v>809000555</v>
       </c>
       <c r="H13" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="I13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="2">
         <v>45915</v>
       </c>
       <c r="B14">
@@ -2550,17 +3147,17 @@
         <v>809000555</v>
       </c>
       <c r="H14" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="J14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="2">
         <v>45916</v>
       </c>
       <c r="B15">
@@ -2573,17 +3170,17 @@
         <v>809000555</v>
       </c>
       <c r="H15" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="J15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="2">
         <v>45917</v>
       </c>
       <c r="B16">
@@ -2596,17 +3193,17 @@
         <v>809000555</v>
       </c>
       <c r="H16" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="J16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="2">
         <v>45918</v>
       </c>
       <c r="B17">
@@ -2619,17 +3216,17 @@
         <v>809000555</v>
       </c>
       <c r="H17" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="I17" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="J17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="2">
         <v>45919</v>
       </c>
       <c r="B18">
@@ -2642,17 +3239,17 @@
         <v>809000555</v>
       </c>
       <c r="H18" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="I18" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="J18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="2">
         <v>45920</v>
       </c>
       <c r="B19">
@@ -2665,17 +3262,17 @@
         <v>809000555</v>
       </c>
       <c r="H19" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="I19" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="J19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="2">
         <v>45921</v>
       </c>
       <c r="B20">
@@ -2688,17 +3285,17 @@
         <v>809000555</v>
       </c>
       <c r="H20" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="I20" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="J20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="2">
         <v>45922</v>
       </c>
       <c r="B21">
@@ -2711,66 +3308,68 @@
         <v>809000555</v>
       </c>
       <c r="H21" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="I21" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="J21" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF3DDBCE-F515-4A6E-A798-B6DBD749FFD1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="9" max="9" width="40.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.1388888888889" customWidth="1"/>
+    <col min="9" max="9" width="40.8518518518519" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="1" ht="28.8" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="2">
         <v>45903</v>
       </c>
       <c r="B2">
@@ -2786,11 +3385,11 @@
         <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="2">
         <v>45904</v>
       </c>
       <c r="B3">
@@ -2803,14 +3402,14 @@
         <v>809000555</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="2">
         <v>45905</v>
       </c>
       <c r="B4">
@@ -2823,14 +3422,14 @@
         <v>809000555</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="2">
         <v>45906</v>
       </c>
       <c r="B5">
@@ -2843,14 +3442,14 @@
         <v>809000555</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="2">
         <v>45907</v>
       </c>
       <c r="B6">
@@ -2863,14 +3462,14 @@
         <v>809000555</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="I6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="2">
         <v>45908</v>
       </c>
       <c r="B7">
@@ -2883,14 +3482,14 @@
         <v>809000555</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="I7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="2">
         <v>45909</v>
       </c>
       <c r="B8">
@@ -2903,14 +3502,14 @@
         <v>809000555</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="I8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="2">
         <v>45910</v>
       </c>
       <c r="B9">
@@ -2923,14 +3522,14 @@
         <v>809000555</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="2">
         <v>45911</v>
       </c>
       <c r="B10">
@@ -2943,14 +3542,14 @@
         <v>809000555</v>
       </c>
       <c r="H10" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="I10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="2">
         <v>45912</v>
       </c>
       <c r="B11">
@@ -2963,14 +3562,14 @@
         <v>809000555</v>
       </c>
       <c r="H11" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="I11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="2">
         <v>45913</v>
       </c>
       <c r="B12">
@@ -2983,14 +3582,14 @@
         <v>809000555</v>
       </c>
       <c r="H12" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="I12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="2">
         <v>45914</v>
       </c>
       <c r="B13">
@@ -3003,14 +3602,14 @@
         <v>809000555</v>
       </c>
       <c r="H13" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="I13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="2">
         <v>45915</v>
       </c>
       <c r="B14">
@@ -3023,14 +3622,14 @@
         <v>809000555</v>
       </c>
       <c r="H14" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="2">
         <v>45916</v>
       </c>
       <c r="B15">
@@ -3043,14 +3642,14 @@
         <v>809000555</v>
       </c>
       <c r="H15" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="2">
         <v>45917</v>
       </c>
       <c r="B16">
@@ -3063,14 +3662,14 @@
         <v>809000555</v>
       </c>
       <c r="H16" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="2">
         <v>45918</v>
       </c>
       <c r="B17">
@@ -3083,14 +3682,14 @@
         <v>809000555</v>
       </c>
       <c r="H17" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="I17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="2">
         <v>45919</v>
       </c>
       <c r="B18">
@@ -3103,14 +3702,14 @@
         <v>809000555</v>
       </c>
       <c r="H18" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="I18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="2">
         <v>45920</v>
       </c>
       <c r="B19">
@@ -3123,14 +3722,14 @@
         <v>809000555</v>
       </c>
       <c r="H19" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="I19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="2">
         <v>45921</v>
       </c>
       <c r="B20">
@@ -3143,14 +3742,14 @@
         <v>809000555</v>
       </c>
       <c r="H20" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="I20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="2">
         <v>45922</v>
       </c>
       <c r="B21">
@@ -3163,14 +3762,15 @@
         <v>809000555</v>
       </c>
       <c r="H21" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="I21" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>